--- a/Results/comparison_results/Easy_comparison/ReAct_Easy_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Easy_comparison/ReAct_Easy_langsmith_extraction.xlsx
@@ -458,180 +458,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot6 to location (5, 4) and remove the liquid spill.</t>
+          <t>Move Robot32 to location (2, 9) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.214196</v>
+        <v>66.63938</v>
       </c>
       <c r="C2" t="n">
-        <v>10328</v>
+        <v>9970</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.03054</t>
+          <t>0.02688</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot29 to location (5, 12) and remove the large debris.</t>
+          <t>Move Robot6 to location (5, 4) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.310749</v>
+        <v>70.214196</v>
       </c>
       <c r="C3" t="n">
-        <v>10285</v>
+        <v>10328</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02937</t>
+          <t>0.03054</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot48 to location (6, 6) and remove the dust.</t>
+          <t>Move Robot29 to location (5, 12) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.849836</v>
+        <v>72.310749</v>
       </c>
       <c r="C4" t="n">
-        <v>10822</v>
+        <v>10285</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03405</t>
+          <t>0.02937</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (1, 8) and remove the grass.</t>
+          <t>Move Robot48 to location (6, 6) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.289986</v>
+        <v>78.849836</v>
       </c>
       <c r="C5" t="n">
-        <v>11156</v>
+        <v>10822</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03528</t>
+          <t>0.03405</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot10 to location (9, 5) and remove the small debris.</t>
+          <t>Move Robot41 to location (1, 8) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.416303</v>
+        <v>78.289986</v>
       </c>
       <c r="C6" t="n">
-        <v>10286</v>
+        <v>11156</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.02802</t>
+          <t>0.03528</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot13 to location (10, 10) and remove the vehicle.</t>
+          <t>Move Robot10 to location (9, 5) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.37535</v>
+        <v>64.416303</v>
       </c>
       <c r="C7" t="n">
-        <v>10614</v>
+        <v>10286</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.03288</t>
+          <t>0.02802</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (8, 2) and remove the construction materials.</t>
+          <t>Move Robot13 to location (10, 10) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.545454</v>
+        <v>67.37535</v>
       </c>
       <c r="C8" t="n">
-        <v>10671</v>
+        <v>10614</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03114</t>
+          <t>0.03288</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot24 to location (11, 8) and remove the tree branches.</t>
+          <t>Move Robot23 to location (8, 2) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.912352</v>
+        <v>63.545454</v>
       </c>
       <c r="C9" t="n">
-        <v>10309</v>
+        <v>10671</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03084</t>
+          <t>0.03114</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (3, 8) and remove the screws.</t>
+          <t>Move Robot24 to location (11, 8) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.80332799999999</v>
+        <v>64.912352</v>
       </c>
       <c r="C10" t="n">
-        <v>10319</v>
+        <v>10309</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.03039</t>
+          <t>0.03084</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the toolkit.</t>
+          <t>Move Robot15 to location (3, 8) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.906284</v>
+        <v>65.80332799999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10794</v>
+        <v>10319</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03354</t>
+          <t>0.03039</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Easy_comparison/ReAct_Easy_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Easy_comparison/ReAct_Easy_langsmith_extraction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>cost</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>run_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,14 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.63938</v>
+        <v>59.237739</v>
       </c>
       <c r="C2" t="n">
-        <v>9970</v>
+        <v>10190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.02688</t>
+          <t>0.02901</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32f9316e-4bc0-46a4-afa8-14aaa4336c54</t>
         </is>
       </c>
     </row>
@@ -480,14 +490,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.214196</v>
+        <v>88.896011</v>
       </c>
       <c r="C3" t="n">
-        <v>10328</v>
+        <v>15913</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03054</t>
+          <t>0.04494</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>311bc329-3172-4334-8fb0-d38516ac23b5</t>
         </is>
       </c>
     </row>
@@ -498,14 +513,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.310749</v>
+        <v>65.567784</v>
       </c>
       <c r="C4" t="n">
-        <v>10285</v>
+        <v>10430</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.02937</t>
+          <t>0.03114</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>e3b1e8a2-6c7f-429c-9744-f6b207ab1791</t>
         </is>
       </c>
     </row>
@@ -516,14 +536,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.849836</v>
+        <v>55.696504</v>
       </c>
       <c r="C5" t="n">
-        <v>10822</v>
+        <v>10609</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03405</t>
+          <t>0.03093</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31074d2f-8aa3-4e05-bd8f-572475eb03a9</t>
         </is>
       </c>
     </row>
@@ -534,14 +559,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.289986</v>
+        <v>66.770931</v>
       </c>
       <c r="C6" t="n">
-        <v>11156</v>
+        <v>11030</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03528</t>
+          <t>0.03387</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ef2a5815-b8b7-4435-94eb-60997a020192</t>
         </is>
       </c>
     </row>
@@ -552,14 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.416303</v>
+        <v>53.303136</v>
       </c>
       <c r="C7" t="n">
-        <v>10286</v>
+        <v>10201</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.02802</t>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7fc801ff-e56f-4803-996b-771189e3bb75</t>
         </is>
       </c>
     </row>
@@ -570,14 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.37535</v>
+        <v>60.462617</v>
       </c>
       <c r="C8" t="n">
-        <v>10614</v>
+        <v>10934</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03288</t>
+          <t>0.03249</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2be08f24-c5ef-4545-a399-ef8f06560125</t>
         </is>
       </c>
     </row>
@@ -588,14 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63.545454</v>
+        <v>62.788666</v>
       </c>
       <c r="C9" t="n">
-        <v>10671</v>
+        <v>10711</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03114</t>
+          <t>0.03309</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46e5456d-c2c5-44e8-a021-1aa55fe3db5b</t>
         </is>
       </c>
     </row>
@@ -606,14 +651,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.912352</v>
+        <v>52.746381</v>
       </c>
       <c r="C10" t="n">
-        <v>10309</v>
+        <v>10037</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.03084</t>
+          <t>0.02805</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>c9d9dd05-07c4-4899-8225-77b29740c9c2</t>
         </is>
       </c>
     </row>
@@ -624,14 +674,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.80332799999999</v>
+        <v>57.283831</v>
       </c>
       <c r="C11" t="n">
-        <v>10319</v>
+        <v>11132</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03039</t>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f7cb0ba4-23a8-4e01-a3b1-f5a8bc3a3a43</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Easy_comparison/ReAct_Easy_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Easy_comparison/ReAct_Easy_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot32 to location (2, 9) and remove the toolkit.</t>
+          <t>Move Robot2 to location (2, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.237739</v>
+        <v>154.496142</v>
       </c>
       <c r="C2" t="n">
-        <v>10190</v>
+        <v>9970</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.02901</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>32f9316e-4bc0-46a4-afa8-14aaa4336c54</t>
+          <t>a5d35f80-ac52-44af-bcf5-e576ebca0d90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot6 to location (5, 4) and remove the liquid spill.</t>
+          <t>Move Robot26 to location (11, 4) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.896011</v>
+        <v>97.85663</v>
       </c>
       <c r="C3" t="n">
-        <v>15913</v>
+        <v>9858</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04494</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>311bc329-3172-4334-8fb0-d38516ac23b5</t>
+          <t>75a7a699-fc3e-49dd-8100-df997e9c2b24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot29 to location (5, 12) and remove the large debris.</t>
+          <t>Move Robot42 to location (9, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.567784</v>
+        <v>80.989754</v>
       </c>
       <c r="C4" t="n">
-        <v>10430</v>
+        <v>10560</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03114</t>
+          <t>0.03432</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>e3b1e8a2-6c7f-429c-9744-f6b207ab1791</t>
+          <t>5811f724-f5b9-4a2a-a686-a97500191ab5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot48 to location (6, 6) and remove the dust.</t>
+          <t>Move Robot48 to location (5, 6) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55.696504</v>
+        <v>80.783254</v>
       </c>
       <c r="C5" t="n">
-        <v>10609</v>
+        <v>10389</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03093</t>
+          <t>0.03201</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31074d2f-8aa3-4e05-bd8f-572475eb03a9</t>
+          <t>c2dff074-5717-4bd6-b356-73bab2117dae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (1, 8) and remove the grass.</t>
+          <t>Move Robot31 to location (9, 4) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.770931</v>
+        <v>70.487014</v>
       </c>
       <c r="C6" t="n">
-        <v>11030</v>
+        <v>9939</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03387</t>
+          <t>0.03039</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ef2a5815-b8b7-4435-94eb-60997a020192</t>
+          <t>efb39e2b-48e7-444a-85a7-ed5f08d91b1d</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot10 to location (9, 5) and remove the small debris.</t>
+          <t>Move Robot8 to location (8, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.303136</v>
+        <v>74.856099</v>
       </c>
       <c r="C7" t="n">
-        <v>10201</v>
+        <v>10435</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.03243</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7fc801ff-e56f-4803-996b-771189e3bb75</t>
+          <t>66e2d32f-5fcc-4f45-bd04-956263fb1c74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot13 to location (10, 10) and remove the vehicle.</t>
+          <t>Move Robot23 to location (11, 1) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.462617</v>
+        <v>86.521565</v>
       </c>
       <c r="C8" t="n">
-        <v>10934</v>
+        <v>10323</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03249</t>
+          <t>0.03075</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2be08f24-c5ef-4545-a399-ef8f06560125</t>
+          <t>622dc99c-9f86-42a7-83a0-f858a24d0ef3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot23 to location (8, 2) and remove the construction materials.</t>
+          <t>Move Robot23 to location (12, 10) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.788666</v>
+        <v>83.645961</v>
       </c>
       <c r="C9" t="n">
-        <v>10711</v>
+        <v>10585</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03309</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>46e5456d-c2c5-44e8-a021-1aa55fe3db5b</t>
+          <t>f8c189b3-80a2-459f-ad93-e1da968400fb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot24 to location (11, 8) and remove the tree branches.</t>
+          <t>Move Robot14 to location (7, 11) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.746381</v>
+        <v>76.400476</v>
       </c>
       <c r="C10" t="n">
-        <v>10037</v>
+        <v>10441</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.02805</t>
+          <t>0.03237</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>c9d9dd05-07c4-4899-8225-77b29740c9c2</t>
+          <t>b9fdcafc-45ec-421e-a6ae-2fbea5564198</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (3, 8) and remove the screws.</t>
+          <t>Move Robot15 to location (5, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.283831</v>
+        <v>66.392388</v>
       </c>
       <c r="C11" t="n">
-        <v>11132</v>
+        <v>10015</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.03141</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>f7cb0ba4-23a8-4e01-a3b1-f5a8bc3a3a43</t>
+          <t>97beca98-1d4f-451f-904d-57c6c44acb27</t>
         </is>
       </c>
     </row>
